--- a/Student money scores.xlsx
+++ b/Student money scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofh-my.sharepoint.com/personal/jlewis7_cougarnet_uh_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{AA044008-B8D6-F44D-B4C6-FB769660EEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A152733A-095E-BF41-9DAF-60886352B903}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{AA044008-B8D6-F44D-B4C6-FB769660EEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEC70559-CEC8-D844-BBF7-AB2D1408B538}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="1780" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{72AEBCC6-D186-0E44-B897-F3EAF3EFE74D}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -198,9 +198,6 @@
     <t>Idaho </t>
   </si>
   <si>
-    <t>Math 4</t>
-  </si>
-  <si>
     <t>22832 </t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>Spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math </t>
   </si>
 </sst>
 </file>
@@ -3291,6 +3291,62 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -7306,7 +7362,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0825CD2-18AB-7F46-8705-5F07DD72358E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0825CD2-18AB-7F46-8705-5F07DD72358E}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:BA5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -7535,7 +7591,7 @@
   <dataFields count="1">
     <dataField name="Sum of Math 4" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="51">
+  <chartFormats count="52">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8141,6 +8197,18 @@
           </reference>
           <reference field="1" count="1" selected="0">
             <x v="50"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -8163,7 +8231,7 @@
   <autoFilter ref="A1:C52" xr:uid="{533151EF-A887-3840-9594-0BB43FBD713D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CFF0FF2B-0A9B-5549-9C54-F20D453D5D40}" name="State" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9DED30C6-E85D-9142-BA0C-AA946E86E59E}" name="Math 4" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9DED30C6-E85D-9142-BA0C-AA946E86E59E}" name="Math " dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{82606AF3-60C4-874A-8649-F190C2BF6B7A}" name="Spending" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8498,6 +8566,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>PsiNormal</we:customFunctionIds>
@@ -8783,170 +8854,170 @@
   <sheetData>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="T4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" t="s">
+      <c r="AX4" t="s">
         <v>88</v>
       </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AY4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA4" t="s">
         <v>103</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="6">
         <v>230</v>
@@ -9115,8 +9186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69AED2B-3F10-1843-8469-DDB63149895A}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B27" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9130,10 +9201,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
